--- a/画面遷移図.xlsx
+++ b/画面遷移図.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191153\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191149\Desktop\sotuken\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12825"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12828"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -443,13 +443,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F24" s="1"/>
     </row>
   </sheetData>

--- a/画面遷移図.xlsx
+++ b/画面遷移図.xlsx
@@ -175,6 +175,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>38400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="674914" y="7772400"/>
+          <a:ext cx="10820400" cy="3467400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -443,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/画面遷移図.xlsx
+++ b/画面遷移図.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191149\Desktop\sotuken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Onuma Kento\Desktop\sotuken\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12828"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -213,6 +213,61 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>226786</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9072</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>117929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="889000" y="11393715"/>
+          <a:ext cx="6404429" cy="3238500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -481,13 +536,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O61" sqref="O61:O62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F24" s="1"/>
     </row>
   </sheetData>

--- a/画面遷移図.xlsx
+++ b/画面遷移図.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Onuma Kento\Desktop\sotuken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191149\Desktop\sotuken\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12830"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12828"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -268,6 +268,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>495</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="674914" y="15316200"/>
+          <a:ext cx="8327572" cy="5715495"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -536,13 +574,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O61" sqref="O61:O62"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q78" sqref="Q78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F24" s="1"/>
     </row>
   </sheetData>

--- a/画面遷移図.xlsx
+++ b/画面遷移図.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191149\Desktop\sotuken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Onuma Kento\Desktop\sotuken\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12828"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -216,61 +216,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>226786</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9072</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>117929</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="889000" y="11393715"/>
-          <a:ext cx="6404429" cy="3238500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -289,7 +234,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -298,6 +243,44 @@
         <a:xfrm>
           <a:off x="674914" y="15316200"/>
           <a:ext cx="8327572" cy="5715495"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>18142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228069</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>196114</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="852714" y="11357428"/>
+          <a:ext cx="7321926" cy="3352972"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -574,13 +557,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q78" sqref="Q78"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S61" sqref="S61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F24" s="1"/>
     </row>
   </sheetData>

--- a/画面遷移図.xlsx
+++ b/画面遷移図.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Onuma Kento\Desktop\sotuken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191163\Desktop\sotuken\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12830"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12825"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,15 +102,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>204108</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>81643</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>171939</xdr:rowOff>
+      <xdr:rowOff>131118</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -127,8 +127,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="4048125"/>
-          <a:ext cx="10972800" cy="3505689"/>
+          <a:off x="762000" y="4122965"/>
+          <a:ext cx="10885714" cy="3600939"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -289,6 +289,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>585108</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>675276</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>55359</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12151179" y="244928"/>
+          <a:ext cx="12336597" cy="6668431"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -557,13 +595,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S61" sqref="S61"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W34" sqref="W34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F24" s="1"/>
     </row>
   </sheetData>
